--- a/石田関係/02班スプリントバックログ.xlsx
+++ b/石田関係/02班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1003,12 +1003,6 @@
     <t>地面からジャンプで木登り</t>
   </si>
   <si>
-    <t>カメラ</t>
-  </si>
-  <si>
-    <t>FPとTPの切り替え</t>
-  </si>
-  <si>
     <t>画面中央にカーソル</t>
   </si>
   <si>
@@ -1093,14 +1087,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>画面の上真ん中に陣地ゲージ表示</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面左上に糸の長さゲージ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -1125,13 +1111,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ＡＩ関係</t>
-    <rPh sb="2" eb="4">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>南雲</t>
     <rPh sb="0" eb="2">
       <t>ナグモ</t>
@@ -1140,13 +1119,6 @@
   </si>
   <si>
     <t>プランナー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1180,23 +1152,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>β用のステージ作成</t>
-    <rPh sb="1" eb="2">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書　プレイヤー　</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仕様書　プレイヤー</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
@@ -1204,15 +1159,185 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仕様書　木(オブジェクト)関係</t>
+    <t>一人称視点と三人称視点の切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>イチニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>サンニンショウシテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木登り時のカメラ</t>
+    <rPh sb="0" eb="2">
+      <t>キノボ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面移動のカメラ</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　AI</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書UI</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　カメラ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　操作説明</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミーの移動</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミーの木登り</t>
+    <rPh sb="5" eb="7">
+      <t>キノボ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミーのジャンプ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>エネミーの糸貼り</t>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>UI　ステージ関係</t>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージセレクトの糸の選択</t>
+    <rPh sb="9" eb="10">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>決定時のシーン移行</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木の場所の判断</t>
+    <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンケイ</t>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>杉浦</t>
+    <rPh sb="0" eb="2">
+      <t>スギウラ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1220,6 +1345,70 @@
     <t>樋田</t>
     <rPh sb="0" eb="2">
       <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書 AI②</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書 AI③</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　木</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　糸</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書の統合 α版</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の陣地ゲージ</t>
+    <rPh sb="2" eb="4">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤーの陣地ゲージ</t>
+    <rPh sb="6" eb="8">
+      <t>ジンチ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2352,6 +2541,27 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -2700,27 +2910,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -2900,6 +3089,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2980,7 +3190,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,37 +3640,54 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'スプリントバックログ(第１）'!$S$106:$S$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$U$107:$U$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$U$106:$U$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3529,37 +3777,54 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>'スプリントバックログ(第１）'!$S$106:$S$115</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$V$107:$V$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$V$106:$V$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3650,27 +3915,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$T$107:$T$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$T$106:$T$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3698,7 +3963,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$X$106</c:f>
+              <c:f>'スプリントバックログ(第１）'!$X$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3763,27 +4028,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$X$107:$X$116</c:f>
+              <c:f>'スプリントバックログ(第１）'!$X$106:$X$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8695,10 +8960,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X188"/>
+  <dimension ref="A1:X187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8804,15 +9070,36 @@
       <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
+        <v>84</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N3" s="20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1">
       <c r="A4" s="114"/>
@@ -8825,16 +9112,37 @@
       <c r="H4" s="119"/>
       <c r="I4" s="114"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J104)</f>
+        <f>SUM(J5:J103)</f>
+        <v>97</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:Q4" si="1">SUM(K5:K103)</f>
+        <v>97</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="16"/>
@@ -8847,7 +9155,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12" t="str">
+        <f ca="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
+        <v/>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -8863,19 +9174,37 @@
         <v>77</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" ref="D6:D42" ca="1" si="2">IF(ISBLANK($B6),"",IF(ISBLANK($F6),"未着手",IF($I6=0,"完了","作業中")))</f>
+        <v>完了</v>
+      </c>
       <c r="E6" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" ref="I6:I68" ca="1" si="3">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:Q6)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -8888,20 +9217,40 @@
         <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E7" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="22">
+        <v>3</v>
+      </c>
+      <c r="K7" s="22">
+        <v>3</v>
+      </c>
+      <c r="L7" s="22">
+        <v>2</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -8913,20 +9262,36 @@
         <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
       <c r="E8" s="4">
-        <v>43035</v>
+        <v>43042</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19">
+        <v>2</v>
+      </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>2</v>
+      </c>
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -8935,23 +9300,43 @@
     <row r="9" spans="1:17">
       <c r="A9" s="16"/>
       <c r="B9" s="86" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E9" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G9" s="19">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>3</v>
+      </c>
+      <c r="K9" s="22">
+        <v>3</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -8960,23 +9345,43 @@
     <row r="10" spans="1:17">
       <c r="A10" s="16"/>
       <c r="B10" s="85" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E10" s="4">
         <v>43035</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="F10" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G10" s="19">
+        <v>6</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="22">
+        <v>6</v>
+      </c>
+      <c r="K10" s="22">
+        <v>6</v>
+      </c>
+      <c r="L10" s="22">
+        <v>6</v>
+      </c>
+      <c r="M10" s="22">
+        <v>4</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -8984,24 +9389,44 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16"/>
-      <c r="B11" s="86" t="s">
-        <v>82</v>
+      <c r="B11" s="85" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
       <c r="E11" s="4">
         <v>43035</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="F11" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -9009,24 +9434,42 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16"/>
-      <c r="B12" s="85" t="s">
-        <v>83</v>
+      <c r="B12" s="86" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E12" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="I12" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1</v>
+      </c>
+      <c r="L12" s="22">
+        <v>1</v>
+      </c>
+      <c r="M12" s="22">
+        <v>1</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -9035,23 +9478,41 @@
     <row r="13" spans="1:17">
       <c r="A13" s="16"/>
       <c r="B13" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E13" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F13" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="I13" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1</v>
+      </c>
+      <c r="K13" s="22">
+        <v>1</v>
+      </c>
+      <c r="L13" s="22">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -9060,23 +9521,41 @@
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
       <c r="B14" s="85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E14" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="I14" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1</v>
+      </c>
+      <c r="L14" s="22">
+        <v>1</v>
+      </c>
+      <c r="M14" s="22">
+        <v>1</v>
+      </c>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -9084,18 +9563,40 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="16"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43042</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19">
+        <v>3</v>
+      </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="I15" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="22">
+        <v>3</v>
+      </c>
+      <c r="K15" s="22">
+        <v>3</v>
+      </c>
+      <c r="L15" s="22">
+        <v>3</v>
+      </c>
+      <c r="M15" s="22">
+        <v>3</v>
+      </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -9105,12 +9606,18 @@
       <c r="A16" s="16"/>
       <c r="B16" s="85"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -9123,7 +9630,7 @@
     <row r="17" spans="1:17">
       <c r="A17" s="16"/>
       <c r="B17" s="100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="12"/>
@@ -9131,7 +9638,10 @@
       <c r="F17" s="4"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -9144,23 +9654,43 @@
     <row r="18" spans="1:17">
       <c r="A18" s="16"/>
       <c r="B18" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E18" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G18" s="19">
+        <v>6</v>
+      </c>
+      <c r="H18" s="19">
+        <v>7</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="22">
+        <v>6</v>
+      </c>
+      <c r="K18" s="22">
+        <v>6</v>
+      </c>
+      <c r="L18" s="22">
+        <v>4</v>
+      </c>
+      <c r="M18" s="22">
+        <v>4</v>
+      </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -9169,23 +9699,43 @@
     <row r="19" spans="1:17">
       <c r="A19" s="16"/>
       <c r="B19" s="85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
       <c r="E19" s="4">
         <v>43035</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="F19" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <v>3</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -9194,19 +9744,27 @@
     <row r="20" spans="1:17">
       <c r="A20" s="16"/>
       <c r="B20" s="85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
       <c r="E20" s="4">
-        <v>43035</v>
+        <v>43042</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -9219,19 +9777,27 @@
     <row r="21" spans="1:17">
       <c r="A21" s="16"/>
       <c r="B21" s="85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
       <c r="E21" s="4">
-        <v>43035</v>
+        <v>43042</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19">
+        <v>3</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -9244,23 +9810,43 @@
     <row r="22" spans="1:17">
       <c r="A22" s="16"/>
       <c r="B22" s="85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E22" s="4">
         <v>43035</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="F22" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="22">
+        <v>3</v>
+      </c>
+      <c r="K22" s="22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="22">
+        <v>3</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -9269,23 +9855,41 @@
     <row r="23" spans="1:17">
       <c r="A23" s="16"/>
       <c r="B23" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E23" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G23" s="19">
+        <v>3</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="22">
+        <v>3</v>
+      </c>
+      <c r="K23" s="22">
+        <v>3</v>
+      </c>
+      <c r="L23" s="22">
+        <v>3</v>
+      </c>
+      <c r="M23" s="22">
+        <v>3</v>
+      </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -9294,23 +9898,41 @@
     <row r="24" spans="1:17">
       <c r="A24" s="16"/>
       <c r="B24" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E24" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="I24" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="22">
+        <v>3</v>
+      </c>
+      <c r="K24" s="22">
+        <v>3</v>
+      </c>
+      <c r="L24" s="22">
+        <v>3</v>
+      </c>
+      <c r="M24" s="22">
+        <v>3</v>
+      </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -9320,12 +9942,18 @@
       <c r="A25" s="16"/>
       <c r="B25" s="85"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -9339,12 +9967,18 @@
       <c r="A26" s="16"/>
       <c r="B26" s="85"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -9357,7 +9991,7 @@
     <row r="27" spans="1:17">
       <c r="A27" s="16"/>
       <c r="B27" s="100" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="12"/>
@@ -9365,7 +9999,10 @@
       <c r="F27" s="4"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -9378,19 +10015,23 @@
     <row r="28" spans="1:17">
       <c r="A28" s="16"/>
       <c r="B28" s="85" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4">
-        <v>43035</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -9403,19 +10044,23 @@
     <row r="29" spans="1:17">
       <c r="A29" s="16"/>
       <c r="B29" s="85" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="4">
-        <v>43035</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f>IF(ISBLANK($B29),"",IF(ISBLANK($F29),"未着手",IF($I29=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -9428,22 +10073,40 @@
     <row r="30" spans="1:17">
       <c r="A30" s="16"/>
       <c r="B30" s="85" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
       <c r="E30" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G30" s="19">
+        <v>2</v>
+      </c>
+      <c r="H30" s="19">
+        <v>2</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ref="I30" ca="1" si="4">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:Q30)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <v>2</v>
+      </c>
+      <c r="K30" s="22">
+        <v>2</v>
+      </c>
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -9452,14 +10115,26 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="16"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="4"/>
+      <c r="B31" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43046</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -9471,14 +10146,30 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="16"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f ca="1">IF(ISBLANK($B32),"",IF(ISBLANK($F32),"未着手",IF($I32=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2</v>
+      </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -9490,16 +10181,28 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="16"/>
-      <c r="B33" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43042</v>
+      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="19">
+        <v>3</v>
+      </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -9512,19 +10215,29 @@
     <row r="34" spans="1:17">
       <c r="A34" s="16"/>
       <c r="B34" s="85" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E34" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
+        <v>43039</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
       <c r="H34" s="19"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -9538,12 +10251,18 @@
       <c r="A35" s="16"/>
       <c r="B35" s="85"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -9555,14 +10274,19 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="16"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="100" t="s">
+        <v>97</v>
+      </c>
       <c r="C36" s="18"/>
       <c r="D36" s="12"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -9574,20 +10298,44 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="16"/>
-      <c r="B37" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="B37" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43032</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G37" s="19">
+        <v>6</v>
+      </c>
+      <c r="H37" s="19">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="22">
+        <v>6</v>
+      </c>
+      <c r="K37" s="22">
+        <v>6</v>
+      </c>
+      <c r="L37" s="22">
+        <v>6</v>
+      </c>
+      <c r="M37" s="22">
+        <v>0</v>
+      </c>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -9596,23 +10344,43 @@
     <row r="38" spans="1:17">
       <c r="A38" s="16"/>
       <c r="B38" s="85" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D38" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
       <c r="E38" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G38" s="19">
+        <v>6</v>
+      </c>
+      <c r="H38" s="19">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="22">
+        <v>6</v>
+      </c>
+      <c r="K38" s="22">
+        <v>6</v>
+      </c>
+      <c r="L38" s="22">
+        <v>6</v>
+      </c>
+      <c r="M38" s="22">
+        <v>0</v>
+      </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -9621,23 +10389,43 @@
     <row r="39" spans="1:17">
       <c r="A39" s="16"/>
       <c r="B39" s="85" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E39" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6</v>
+      </c>
+      <c r="H39" s="19">
+        <v>5</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J39" s="22">
+        <v>6</v>
+      </c>
+      <c r="K39" s="22">
+        <v>6</v>
+      </c>
+      <c r="L39" s="22">
+        <v>6</v>
+      </c>
+      <c r="M39" s="22">
+        <v>3</v>
+      </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -9646,19 +10434,25 @@
     <row r="40" spans="1:17">
       <c r="A40" s="16"/>
       <c r="B40" s="85" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D40" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>未着手</v>
+      </c>
       <c r="E40" s="4">
-        <v>43035</v>
+        <v>43032</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -9671,23 +10465,43 @@
     <row r="41" spans="1:17">
       <c r="A41" s="16"/>
       <c r="B41" s="85" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="12"/>
+        <v>115</v>
+      </c>
+      <c r="D41" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
       <c r="E41" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+        <v>43032</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G41" s="19">
+        <v>6</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J41" s="22">
+        <v>6</v>
+      </c>
+      <c r="K41" s="22">
+        <v>6</v>
+      </c>
+      <c r="L41" s="22">
+        <v>6</v>
+      </c>
+      <c r="M41" s="22">
+        <v>3</v>
+      </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -9697,12 +10511,18 @@
       <c r="A42" s="16"/>
       <c r="B42" s="85"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="12"/>
+      <c r="I42" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -9714,18 +10534,17 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="16"/>
-      <c r="B43" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>113</v>
-      </c>
+      <c r="B43" s="100"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="12"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -9737,18 +10556,20 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="16"/>
-      <c r="B44" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="12"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="12" t="str">
+        <f t="shared" ref="D44:D51" si="5">IF(ISBLANK($B44),"",IF(ISBLANK($F44),"未着手",IF($I44=0,"完了","作業中")))</f>
+        <v/>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -9762,12 +10583,18 @@
       <c r="A45" s="16"/>
       <c r="B45" s="85"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -9781,12 +10608,18 @@
       <c r="A46" s="16"/>
       <c r="B46" s="85"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -9800,12 +10633,18 @@
       <c r="A47" s="16"/>
       <c r="B47" s="85"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12" t="str">
+        <f ca="1">IF(ISBLANK(J47)=FALSE,OFFSET(I47,0,COUNTA(J47:Q47)),"")</f>
+        <v/>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -9819,7 +10658,10 @@
       <c r="A48" s="16"/>
       <c r="B48" s="85"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12" t="str">
+        <f>IF(ISBLANK($B48),"",IF(ISBLANK($F48),"未着手",IF($I48=0,"完了","作業中")))</f>
+        <v/>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="19"/>
@@ -9838,12 +10680,18 @@
       <c r="A49" s="16"/>
       <c r="B49" s="85"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="12"/>
+      <c r="I49" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -9857,12 +10705,18 @@
       <c r="A50" s="16"/>
       <c r="B50" s="85"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -9876,12 +10730,18 @@
       <c r="A51" s="16"/>
       <c r="B51" s="85"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -9893,14 +10753,19 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="16"/>
-      <c r="B52" s="85"/>
+      <c r="B52" s="100" t="s">
+        <v>99</v>
+      </c>
       <c r="C52" s="18"/>
       <c r="D52" s="12"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="12" t="str">
+        <f t="shared" ref="I52:I55" ca="1" si="6">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:Q52)),"")</f>
+        <v/>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -9912,18 +10777,40 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="16"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="12" t="str">
+        <f t="shared" ref="D53:D68" si="7">IF(ISBLANK($B53),"",IF(ISBLANK($F53),"未着手",IF($I53=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43035</v>
+      </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19">
+        <v>3</v>
+      </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
+      <c r="I53" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J53" s="22">
+        <v>3</v>
+      </c>
+      <c r="K53" s="22">
+        <v>3</v>
+      </c>
+      <c r="L53" s="22">
+        <v>3</v>
+      </c>
+      <c r="M53" s="22">
+        <v>3</v>
+      </c>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -9931,18 +10818,40 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="16"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>未着手</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43039</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19">
+        <v>3</v>
+      </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
+      <c r="I54" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="22">
+        <v>3</v>
+      </c>
+      <c r="K54" s="22">
+        <v>3</v>
+      </c>
+      <c r="L54" s="22">
+        <v>3</v>
+      </c>
+      <c r="M54" s="22">
+        <v>3</v>
+      </c>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
@@ -9950,18 +10859,40 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="16"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="12" t="str">
+        <f t="shared" si="7"/>
+        <v>未着手</v>
+      </c>
+      <c r="E55" s="4">
+        <v>43042</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="19">
+        <v>3</v>
+      </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
+      <c r="I55" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J55" s="22">
+        <v>3</v>
+      </c>
+      <c r="K55" s="22">
+        <v>3</v>
+      </c>
+      <c r="L55" s="22">
+        <v>3</v>
+      </c>
+      <c r="M55" s="22">
+        <v>3</v>
+      </c>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
@@ -9969,18 +10900,44 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="16"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="B56" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="12" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>作業中</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F56" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G56" s="19">
+        <v>3</v>
+      </c>
+      <c r="H56" s="19">
+        <v>3</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" ref="I56:I57" ca="1" si="8">IF(ISBLANK(J56)=FALSE,OFFSET(I56,0,COUNTA(J56:Q56)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J56" s="22">
+        <v>3</v>
+      </c>
+      <c r="K56" s="22">
+        <v>3</v>
+      </c>
+      <c r="L56" s="22">
+        <v>3</v>
+      </c>
+      <c r="M56" s="22">
+        <v>2</v>
+      </c>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -9988,24 +10945,40 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="16"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="D57" s="12" t="str">
-        <f t="shared" ref="D57:D69" si="0">IF(ISBLANK($B57),"",IF(ISBLANK($F57),"未着手",IF($I57=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E57" s="4"/>
+        <f t="shared" si="7"/>
+        <v>未着手</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43039</v>
+      </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="19">
+        <v>3</v>
+      </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="12" t="str">
-        <f t="shared" ref="I57:I104" ca="1" si="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
-        <v/>
-      </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
+      <c r="I57" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="J57" s="22">
+        <v>3</v>
+      </c>
+      <c r="K57" s="22">
+        <v>3</v>
+      </c>
+      <c r="L57" s="22">
+        <v>3</v>
+      </c>
+      <c r="M57" s="22">
+        <v>3</v>
+      </c>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -10013,24 +10986,44 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="16"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="D58" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>作業中</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F58" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G58" s="19">
+        <v>3</v>
+      </c>
+      <c r="H58" s="19">
+        <v>2</v>
+      </c>
+      <c r="I58" s="12">
+        <f ca="1">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:Q58)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J58" s="22">
+        <v>3</v>
+      </c>
+      <c r="K58" s="22">
+        <v>3</v>
+      </c>
+      <c r="L58" s="22">
+        <v>3</v>
+      </c>
+      <c r="M58" s="22">
+        <v>2</v>
+      </c>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -10038,24 +11031,44 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="16"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="D59" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
+        <f ca="1">IF(ISBLANK($B59),"",IF(ISBLANK($F59),"未着手",IF($I59=0,"完了","作業中")))</f>
+        <v>完了</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F59" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G59" s="19">
+        <v>3</v>
+      </c>
+      <c r="H59" s="19">
+        <v>3</v>
+      </c>
+      <c r="I59" s="12">
+        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:Q59)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="22">
+        <v>3</v>
+      </c>
+      <c r="K59" s="22">
+        <v>3</v>
+      </c>
+      <c r="L59" s="22">
+        <v>3</v>
+      </c>
+      <c r="M59" s="22">
+        <v>0</v>
+      </c>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
@@ -10063,24 +11076,40 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="16"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>122</v>
+      </c>
       <c r="D60" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E60" s="4"/>
+        <f t="shared" si="7"/>
+        <v>未着手</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43039</v>
+      </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19">
+        <v>1</v>
+      </c>
       <c r="H60" s="19"/>
-      <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
+      <c r="I60" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="22">
+        <v>1</v>
+      </c>
+      <c r="K60" s="22">
+        <v>1</v>
+      </c>
+      <c r="L60" s="22">
+        <v>1</v>
+      </c>
+      <c r="M60" s="22">
+        <v>1</v>
+      </c>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
@@ -10091,7 +11120,7 @@
       <c r="B61" s="85"/>
       <c r="C61" s="18"/>
       <c r="D61" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E61" s="4"/>
@@ -10099,7 +11128,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J61" s="22"/>
@@ -10115,18 +11144,12 @@
       <c r="A62" s="16"/>
       <c r="B62" s="85"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D62" s="12"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -10140,18 +11163,12 @@
       <c r="A63" s="16"/>
       <c r="B63" s="85"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="D63" s="12"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="I63" s="12"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
@@ -10163,75 +11180,137 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="D64" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>完了</v>
+      </c>
+      <c r="E64" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F64" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G64" s="19">
+        <v>3</v>
+      </c>
+      <c r="H64" s="19">
+        <v>3</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" ref="I64:I66" ca="1" si="9">IF(ISBLANK(J64)=FALSE,OFFSET(I64,0,COUNTA(J64:Q64)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="22">
+        <v>3</v>
+      </c>
+      <c r="K64" s="22">
+        <v>3</v>
+      </c>
+      <c r="L64" s="22">
+        <v>3</v>
+      </c>
+      <c r="M64" s="22">
+        <v>3</v>
+      </c>
+      <c r="N64" s="22">
+        <v>0</v>
+      </c>
       <c r="O64" s="22"/>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="D65" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="19"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>作業中</v>
+      </c>
+      <c r="E65" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F65" s="4">
+        <v>43036</v>
+      </c>
+      <c r="G65" s="19">
+        <v>3</v>
+      </c>
       <c r="H65" s="19"/>
-      <c r="I65" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
+      <c r="I65" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J65" s="22">
+        <v>3</v>
+      </c>
+      <c r="K65" s="22">
+        <v>3</v>
+      </c>
+      <c r="L65" s="22">
+        <v>3</v>
+      </c>
+      <c r="M65" s="22">
+        <v>3</v>
+      </c>
+      <c r="N65" s="22">
+        <v>3</v>
+      </c>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="19"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>作業中</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F66" s="4">
+        <v>43037</v>
+      </c>
+      <c r="G66" s="19">
+        <v>3</v>
+      </c>
       <c r="H66" s="19"/>
-      <c r="I66" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
+      <c r="I66" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J66" s="22">
+        <v>3</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3</v>
+      </c>
+      <c r="L66" s="22">
+        <v>3</v>
+      </c>
+      <c r="M66" s="22">
+        <v>3</v>
+      </c>
+      <c r="N66" s="22">
+        <v>3</v>
+      </c>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
@@ -10241,7 +11320,7 @@
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E67" s="4"/>
@@ -10249,7 +11328,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J67" s="22"/>
@@ -10266,7 +11345,7 @@
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E68" s="4"/>
@@ -10274,7 +11353,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J68" s="22"/>
@@ -10291,7 +11370,7 @@
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D69:D103" si="10">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="4"/>
@@ -10299,7 +11378,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="I69:I103" ca="1" si="11">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:Q69)),"")</f>
         <v/>
       </c>
       <c r="J69" s="22"/>
@@ -10316,7 +11395,7 @@
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="12" t="str">
-        <f t="shared" ref="D70:D104" si="2">IF(ISBLANK($B70),"",IF(ISBLANK($F70),"未着手",IF($I70=0,"完了","作業中")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E70" s="4"/>
@@ -10324,7 +11403,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J70" s="22"/>
@@ -10341,7 +11420,7 @@
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E71" s="4"/>
@@ -10349,7 +11428,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -10366,7 +11445,7 @@
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E72" s="4"/>
@@ -10374,7 +11453,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -10391,7 +11470,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E73" s="4"/>
@@ -10399,7 +11478,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J73" s="22"/>
@@ -10416,7 +11495,7 @@
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E74" s="4"/>
@@ -10424,7 +11503,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -10441,7 +11520,7 @@
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E75" s="4"/>
@@ -10449,7 +11528,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J75" s="22"/>
@@ -10466,7 +11545,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E76" s="4"/>
@@ -10474,7 +11553,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -10491,7 +11570,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E77" s="4"/>
@@ -10499,7 +11578,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J77" s="22"/>
@@ -10516,7 +11595,7 @@
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E78" s="4"/>
@@ -10524,7 +11603,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -10541,7 +11620,7 @@
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E79" s="4"/>
@@ -10549,7 +11628,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -10566,7 +11645,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E80" s="4"/>
@@ -10574,7 +11653,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -10591,7 +11670,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E81" s="4"/>
@@ -10599,7 +11678,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -10616,7 +11695,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E82" s="4"/>
@@ -10624,7 +11703,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -10641,7 +11720,7 @@
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E83" s="4"/>
@@ -10649,7 +11728,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -10666,7 +11745,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E84" s="4"/>
@@ -10674,7 +11753,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J84" s="22"/>
@@ -10691,7 +11770,7 @@
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E85" s="4"/>
@@ -10699,7 +11778,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -10716,7 +11795,7 @@
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E86" s="4"/>
@@ -10724,7 +11803,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -10741,7 +11820,7 @@
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E87" s="4"/>
@@ -10749,7 +11828,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -10766,7 +11845,7 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E88" s="4"/>
@@ -10774,7 +11853,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -10791,7 +11870,7 @@
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E89" s="4"/>
@@ -10799,7 +11878,7 @@
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J89" s="22"/>
@@ -10816,7 +11895,7 @@
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E90" s="4"/>
@@ -10824,7 +11903,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -10841,7 +11920,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E91" s="4"/>
@@ -10849,7 +11928,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -10866,7 +11945,7 @@
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E92" s="4"/>
@@ -10874,7 +11953,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -10891,7 +11970,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E93" s="4"/>
@@ -10899,7 +11978,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -10916,7 +11995,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E94" s="4"/>
@@ -10924,7 +12003,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -10941,7 +12020,7 @@
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E95" s="4"/>
@@ -10949,7 +12028,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J95" s="22"/>
@@ -10966,7 +12045,7 @@
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E96" s="4"/>
@@ -10974,7 +12053,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -10991,7 +12070,7 @@
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E97" s="4"/>
@@ -10999,7 +12078,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -11016,7 +12095,7 @@
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E98" s="4"/>
@@ -11024,7 +12103,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -11041,7 +12120,7 @@
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E99" s="4"/>
@@ -11049,7 +12128,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -11066,7 +12145,7 @@
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E100" s="4"/>
@@ -11074,7 +12153,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -11091,7 +12170,7 @@
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E101" s="4"/>
@@ -11099,7 +12178,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -11116,7 +12195,7 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E102" s="4"/>
@@ -11124,7 +12203,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -11141,7 +12220,7 @@
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E103" s="4"/>
@@ -11149,7 +12228,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J103" s="22"/>
@@ -11161,32 +12240,17 @@
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
     </row>
-    <row r="104" spans="1:24">
-      <c r="A104" s="16"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J104" s="22"/>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-    </row>
-    <row r="105" spans="1:24" ht="10.5" customHeight="1">
+    <row r="104" spans="1:24" ht="10.5" customHeight="1">
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="1:24">
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -11195,6 +12259,24 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
+      <c r="S105" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U105" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X105" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="106" spans="1:24">
       <c r="J106" s="6"/>
@@ -11205,23 +12287,28 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-      <c r="S106" s="13" t="s">
+      <c r="S106" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="T106" s="10">
+        <f>SUMIF($C$5:$C$103,S106,$G$5:$G$103)</f>
+        <v>24</v>
+      </c>
+      <c r="U106" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S106,$I$5:$I$103)</f>
         <v>11</v>
       </c>
-      <c r="T106" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U106" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="W106" s="13" t="s">
+      <c r="V106" s="10">
+        <f>SUMIF($C$5:$C$103,S106,$H$5:$H$103)</f>
         <v>12</v>
       </c>
-      <c r="X106" s="13" t="s">
-        <v>13</v>
+      <c r="W106" s="14">
+        <f t="shared" ref="W106:W115" si="12">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
+        <v>0</v>
+      </c>
+      <c r="X106" s="15">
+        <f ca="1">IF(W106&gt;U106,0,U106-W106)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -11233,26 +12320,28 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-      <c r="S107" s="11"/>
+      <c r="S107" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="T107" s="10">
-        <f t="shared" ref="T107:T116" si="3">SUMIF($C$5:$C$104,S107,$G$5:$G$104)</f>
+        <f>SUMIF($C$5:$C$103,S107,$G$5:$G$103)</f>
+        <v>24</v>
+      </c>
+      <c r="U107" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S107,$I$5:$I$103)</f>
+        <v>6</v>
+      </c>
+      <c r="V107" s="10">
+        <f>SUMIF($C$5:$C$103,S107,$H$5:$H$103)</f>
+        <v>10</v>
+      </c>
+      <c r="W107" s="14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U107" s="10">
-        <f t="shared" ref="U107:U116" si="4">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
-        <v>0</v>
-      </c>
-      <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="5">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
-        <v>0</v>
-      </c>
-      <c r="W107" s="14">
-        <f t="shared" ref="W107:W116" si="6">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>42</v>
-      </c>
       <c r="X107" s="15">
-        <f>IF(W107&gt;U107,0,U107-W107)</f>
-        <v>0</v>
+        <f t="shared" ref="X107:X115" ca="1" si="13">IF(W107&gt;U107,0,U107-W107)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11264,26 +12353,28 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-      <c r="S108" s="11"/>
+      <c r="S108" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="T108" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S108,$G$5:$G$103)</f>
+        <v>22</v>
+      </c>
+      <c r="U108" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S108,$I$5:$I$103)</f>
+        <v>14</v>
+      </c>
+      <c r="V108" s="10">
+        <f>SUMIF($C$5:$C$103,S108,$H$5:$H$103)</f>
+        <v>13</v>
+      </c>
+      <c r="W108" s="14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U108" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V108" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W108" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X108" s="15">
-        <f t="shared" ref="X108:X116" si="7">IF(W108&gt;U108,0,U108-W108)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11295,25 +12386,27 @@
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-      <c r="S109" s="11"/>
+      <c r="S109" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="T109" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S109,$G$5:$G$103)</f>
+        <v>8</v>
+      </c>
+      <c r="U109" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S109,$I$5:$I$103)</f>
         <v>0</v>
       </c>
-      <c r="U109" s="10">
-        <f t="shared" si="4"/>
+      <c r="V109" s="10">
+        <f>SUMIF($C$5:$C$103,S109,$H$5:$H$103)</f>
+        <v>2</v>
+      </c>
+      <c r="W109" s="14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V109" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W109" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X109" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11326,26 +12419,28 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-      <c r="S110" s="11"/>
+      <c r="S110" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="T110" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S110,$G$5:$G$103)</f>
+        <v>22</v>
+      </c>
+      <c r="U110" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S110,$I$5:$I$103)</f>
+        <v>17</v>
+      </c>
+      <c r="V110" s="10">
+        <f>SUMIF($C$5:$C$103,S110,$H$5:$H$103)</f>
+        <v>8</v>
+      </c>
+      <c r="W110" s="14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U110" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V110" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W110" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X110" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11357,26 +12452,28 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-      <c r="S111" s="11"/>
+      <c r="S111" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="T111" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S111,$G$5:$G$103)</f>
+        <v>9</v>
+      </c>
+      <c r="U111" s="10">
+        <f ca="1">SUMIF($C$5:$C$103,S111,$I$5:$I$103)</f>
+        <v>6</v>
+      </c>
+      <c r="V111" s="10">
+        <f>SUMIF($C$5:$C$103,S111,$H$5:$H$103)</f>
+        <v>3</v>
+      </c>
+      <c r="W111" s="14">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U111" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V111" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W111" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X111" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:24">
@@ -11390,23 +12487,23 @@
       <c r="Q112" s="6"/>
       <c r="S112" s="11"/>
       <c r="T112" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S112,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" si="4"/>
+        <f>SUMIF($C$5:$C$103,S112,$I$5:$I$103)</f>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" si="5"/>
+        <f>SUMIF($C$5:$C$103,S112,$H$5:$H$103)</f>
         <v>0</v>
       </c>
       <c r="W112" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="X112" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11421,23 +12518,23 @@
       <c r="Q113" s="6"/>
       <c r="S113" s="11"/>
       <c r="T113" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S113,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f t="shared" si="4"/>
+        <f>SUMIF($C$5:$C$103,S113,$I$5:$I$103)</f>
         <v>0</v>
       </c>
       <c r="V113" s="10">
-        <f t="shared" si="5"/>
+        <f>SUMIF($C$5:$C$103,S113,$H$5:$H$103)</f>
         <v>0</v>
       </c>
       <c r="W113" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="X113" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11452,23 +12549,23 @@
       <c r="Q114" s="6"/>
       <c r="S114" s="11"/>
       <c r="T114" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S114,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f t="shared" si="4"/>
+        <f>SUMIF($C$5:$C$103,S114,$I$5:$I$103)</f>
         <v>0</v>
       </c>
       <c r="V114" s="10">
-        <f t="shared" si="5"/>
+        <f>SUMIF($C$5:$C$103,S114,$H$5:$H$103)</f>
         <v>0</v>
       </c>
       <c r="W114" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="X114" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11483,23 +12580,23 @@
       <c r="Q115" s="6"/>
       <c r="S115" s="11"/>
       <c r="T115" s="10">
-        <f t="shared" si="3"/>
+        <f>SUMIF($C$5:$C$103,S115,$G$5:$G$103)</f>
         <v>0</v>
       </c>
       <c r="U115" s="10">
-        <f t="shared" si="4"/>
+        <f>SUMIF($C$5:$C$103,S115,$I$5:$I$103)</f>
         <v>0</v>
       </c>
       <c r="V115" s="10">
-        <f t="shared" si="5"/>
+        <f>SUMIF($C$5:$C$103,S115,$H$5:$H$103)</f>
         <v>0</v>
       </c>
       <c r="W115" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="X115" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -11512,27 +12609,6 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="X116" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="10:24">
       <c r="J117" s="6"/>
@@ -12243,16 +13319,6 @@
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
-    </row>
-    <row r="188" spans="10:17">
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12268,59 +13334,59 @@
     <mergeCell ref="H1:H4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D105:D65536">
+  <conditionalFormatting sqref="D104:D65535">
     <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+      <formula>D104="未着手"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+      <formula>D104="作業中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+      <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="44" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:XFD103">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="B104:B65535">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+      <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+      <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+      <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="C104:C65535">
+    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+      <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+      <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+      <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
-      <formula>$D105="未着手"</formula>
+  <conditionalFormatting sqref="E104:Q65535">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+      <formula>$D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
-      <formula>$D105="作業中"</formula>
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+      <formula>$D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
-      <formula>OR($D105="終了",$D105="完了")</formula>
+    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
+      <formula>OR($D104="終了",$D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -16125,57 +17191,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19411,57 +20477,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20275,13 +21341,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
